--- a/Activity.xlsx
+++ b/Activity.xlsx
@@ -150,12 +150,12 @@
   <commentList>
     <comment authorId="0" ref="E2" shapeId="0">
       <text>
-        <t>done!</t>
+        <t>language done!</t>
       </text>
     </comment>
     <comment authorId="0" ref="S2" shapeId="0">
       <text>
-        <t>done!</t>
+        <t>language done!</t>
       </text>
     </comment>
     <comment authorId="0" ref="E5" shapeId="0">
@@ -619,7 +619,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>name_</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>rule_desc</t>
+          <t>rule_desc_</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
